--- a/products.xlsx
+++ b/products.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>code</t>
   </si>
@@ -44,9 +44,6 @@
     <t>biscuit</t>
   </si>
   <si>
-    <t>oreo</t>
-  </si>
-  <si>
     <t>20-20</t>
   </si>
   <si>
@@ -57,6 +54,21 @@
   </si>
   <si>
     <t>Pepsi</t>
+  </si>
+  <si>
+    <t>chocolates</t>
+  </si>
+  <si>
+    <t>dairymilk silk</t>
+  </si>
+  <si>
+    <t>kitkat</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>basmati</t>
   </si>
 </sst>
 </file>
@@ -374,15 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="72.7109375" customWidth="1"/>
+    <col min="2" max="3" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -410,7 +423,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -421,16 +434,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>433</v>
+        <v>8480000330451</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <v>200</v>
@@ -438,36 +451,70 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>8480000330451</v>
+        <v>8908012122265</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E4">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>8908012122265</v>
+        <v>58649234759655</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>85</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>76950450479</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="D5">
-        <v>40</v>
-      </c>
-      <c r="E5">
-        <v>250</v>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>35</v>
+      </c>
+      <c r="E6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>712345678911</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>400</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
